--- a/infoeng.xlsx
+++ b/infoeng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d22cf349efd5111f/Documents/CV-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC10481EC91A7DC45ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50787A53-363C-4D8C-9838-C377C3892E61}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_F25DC773A252ABDACC10481EC91A7DC45ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB3AB675-3514-47A8-BC06-7D20A7C11B52}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>- Experience in writing test documentation: test case, bug report, checklist, test plan, test design.</t>
   </si>
@@ -59,21 +59,9 @@
     <t>- Knowledge of methodology – Agile (mostly Scrum);</t>
   </si>
   <si>
-    <t>- Understanding the SDLC;</t>
-  </si>
-  <si>
-    <t>- Strong technical background;</t>
-  </si>
-  <si>
-    <t>- In-depth understanding of QA methodologies and processes</t>
-  </si>
-  <si>
     <t>- Practical skills in Manual QA (Web /Desktop / Mobile);</t>
   </si>
   <si>
-    <t>- Proper understanding of Web technologies (HTML/CSS)</t>
-  </si>
-  <si>
     <t>Management and marketing | 10.2018 - 10.2021</t>
   </si>
   <si>
@@ -123,13 +111,37 @@
   </si>
   <si>
     <t>Mid-specialist</t>
+  </si>
+  <si>
+    <t>- Light understanding of cyber security</t>
+  </si>
+  <si>
+    <t>- Service Now platforw configurations</t>
+  </si>
+  <si>
+    <t>- Understanding steps and self positioning in the SDLC</t>
+  </si>
+  <si>
+    <t>- Experience in contacting to client and understanding needs</t>
+  </si>
+  <si>
+    <t>- Experience in incident menegement</t>
+  </si>
+  <si>
+    <t>- Proper understanding of Web technologies (HTML/CSS/JS/Python(Django))</t>
+  </si>
+  <si>
+    <t>- Python development</t>
+  </si>
+  <si>
+    <t>Being in tuch with clients to resolve issues, implement needs etc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +159,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="YAD7Q9NigKI 0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -180,6 +199,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,10 +221,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,67 +486,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="109.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC38EAE6-7D30-4338-A77D-EF3657A5C528}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -545,47 +585,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -595,37 +635,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806D01A-EC68-4031-A90D-E5F02E3295B1}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -648,17 +696,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/infoeng.xlsx
+++ b/infoeng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d22cf349efd5111f/Documents/CV-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_F25DC773A252ABDACC10481EC91A7DC45ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB3AB675-3514-47A8-BC06-7D20A7C11B52}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_F25DC773A252ABDACC10481EC91A7DC45ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A88CACA4-AA70-4326-9AF1-EED7BC12B3D0}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="38700" windowHeight="15285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -39,28 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>- Experience in writing test documentation: test case, bug report, checklist, test plan, test design.</t>
-  </si>
-  <si>
-    <t>- Knowledge of test types: smoke, regression, functional tests, integration tests, user interface/UI tests, component tests;</t>
-  </si>
-  <si>
-    <t>- Experience with the bug-tracking system - Jira/Trello, Redmine, Bugzilla.</t>
-  </si>
-  <si>
-    <t>- Experience in the version control system - GitHub;</t>
-  </si>
-  <si>
-    <t>- API testing – Postman (Processing prepared requests);</t>
-  </si>
-  <si>
-    <t>- Knowledge of methodology – Agile (mostly Scrum);</t>
-  </si>
-  <si>
-    <t>- Practical skills in Manual QA (Web /Desktop / Mobile);</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Management and marketing | 10.2018 - 10.2021</t>
   </si>
@@ -113,35 +92,86 @@
     <t>Mid-specialist</t>
   </si>
   <si>
-    <t>- Light understanding of cyber security</t>
-  </si>
-  <si>
-    <t>- Service Now platforw configurations</t>
-  </si>
-  <si>
-    <t>- Understanding steps and self positioning in the SDLC</t>
-  </si>
-  <si>
-    <t>- Experience in contacting to client and understanding needs</t>
-  </si>
-  <si>
-    <t>- Experience in incident menegement</t>
-  </si>
-  <si>
-    <t>- Proper understanding of Web technologies (HTML/CSS/JS/Python(Django))</t>
-  </si>
-  <si>
-    <t>- Python development</t>
-  </si>
-  <si>
     <t>Being in tuch with clients to resolve issues, implement needs etc</t>
+  </si>
+  <si>
+    <t>- API testing with prepared requests</t>
+  </si>
+  <si>
+    <t>- Understanding of SDLC and QA participation in.</t>
+  </si>
+  <si>
+    <t>- Knowledge in the cybersecurity area</t>
+  </si>
+  <si>
+    <t>- Incident management experience</t>
+  </si>
+  <si>
+    <t>- Advanced experience working with ServiceNow</t>
+  </si>
+  <si>
+    <t>- Experience of working with GitHub (Repository creation, pushing, review and mergin)</t>
+  </si>
+  <si>
+    <t>- Product management platforms working with Jira, Trello, Teamwork, Excel</t>
+  </si>
+  <si>
+    <t>- Experienced work regarding Agile methodology (Scrum, Kanban, Mixed)</t>
+  </si>
+  <si>
+    <t>- Understanding of PC hardware part and “Math” of logic inside computer systems</t>
+  </si>
+  <si>
+    <t>- Experience in working with WEB applications</t>
+  </si>
+  <si>
+    <t>- Understanding (and a bit of non-commercial experience) in programming with Python language</t>
+  </si>
+  <si>
+    <t>- Experienced in communication with clients and requirements gathering/ realization</t>
+  </si>
+  <si>
+    <t>- Experienced in test documentation writing: Test-cases, 2:2Checklists, Bag-reports</t>
+  </si>
+  <si>
+    <t>- Applied experience in test types realizations: Smoke, Regression, Function/non-function, UI/UX, and integrational testing</t>
+  </si>
+  <si>
+    <t>Middle QA engineer</t>
+  </si>
+  <si>
+    <t>TesteamNow | 04.2020 - 11. 2021</t>
+  </si>
+  <si>
+    <t>- Distribution of obligations between colleagues</t>
+  </si>
+  <si>
+    <t>- Regression, Functional, Integration and smog testing of many different size projects (East West Bridge, Sekta_shop, SmartTel and others)</t>
+  </si>
+  <si>
+    <t>- Version tracking and testing before installing on a life product</t>
+  </si>
+  <si>
+    <t>- Support of new Team members and training</t>
+  </si>
+  <si>
+    <t>- API for testing VEB application using prepared requests</t>
+  </si>
+  <si>
+    <t>- Debugging programs for testing and localizing bugs</t>
+  </si>
+  <si>
+    <t>- Communication with the customer to confirm or clarify the needs</t>
+  </si>
+  <si>
+    <t>- Communication between departments (Team of testers and developers)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,17 +185,37 @@
       <name val="YAD7Q9NigKI 0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="YAD7Q9NigKI 0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,27 +238,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,73 +551,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
+      <c r="A13" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
+      <c r="A14" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -585,47 +638,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -635,49 +688,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806D01A-EC68-4031-A90D-E5F02E3295B1}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" width="118.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+      <c r="A6" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -685,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730F6C38-D5B5-42DA-8A6C-F42A31E146B8}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Z5" sqref="Z5:Z6"/>
     </sheetView>
   </sheetViews>
@@ -696,17 +809,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
